--- a/03.test/01_成果物(20250926納品分)/F4011_外部設計書_補足説明一覧/F4011_DA_外部設計書補足説明一覧.xlsx
+++ b/03.test/01_成果物(20250926納品分)/F4011_外部設計書_補足説明一覧/F4011_DA_外部設計書補足説明一覧.xlsx
@@ -2,25 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29512"/>
-  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="true"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\会計\会計成果物wc\doc\20_外部設計\01_成果物\F4011_外部設計書_補足説明一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B1658-6086-465A-BA2D-66C9BDAFCA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="761" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="761" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
     <sheet name="補足説明一覧" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$BJ$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">補足説明一覧!$A$1:$BJ$81</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">変更履歴!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">補足説明一覧!$1:$6</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">変更履歴!$A$1:$BJ$60</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">補足説明一覧!$A$1:$BJ$81</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">変更履歴!$1:$5</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Titles">補足説明一覧!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -697,8 +696,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐ明朝"/>
@@ -732,7 +731,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="14"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
@@ -763,12 +762,19 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF4180C4"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1054,327 +1060,330 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{8CF97B18-FA6C-466F-AE3A-CEAAF9614AD0}"/>
-    <cellStyle name="標準 3" xfId="2" xr:uid="{0F062E02-A966-4B6C-B1F3-EFC824303E40}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1387,120 +1396,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="44546A"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="E7E6E6"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="5B9BD5"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="ED7D31"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="A5A5A5"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="FFC000"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="4472C4"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="70AD47"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0563C1"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="954F72"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="宋体"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri" panose="020F0502020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="宋体"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1556,8 +1565,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1579,8 +1588,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -1596,8 +1605,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1634,17 +1643,17 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults/>
+  <extraClrSchemeLst/>
+  <extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
       <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
-  </a:extLst>
-</a:theme>
+  </extLst>
+</theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3143,20 +3152,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E5C196-62C6-433D-AA48-4CCA9B349687}">
   <sheetPr codeName="Sheet2">
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:BJ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="true" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="62" width="2.42578125" customWidth="1"/>
-    <col min="63" max="231" width="1.7109375" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="1.7109375"/>
+    <col customWidth="true" max="62" min="2" width="2.42578125"/>
+    <col customWidth="true" max="231" min="63" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:62" s="8" customFormat="true" ht="18" customHeight="true">
       <c r="A2" s="55" t="s">
         <v>15</v>
       </c>
@@ -3236,7 +3245,7 @@
       <c r="BI2" s="59"/>
       <c r="BJ2" s="60"/>
     </row>
-    <row r="3" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true">
       <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
@@ -3308,7 +3317,7 @@
       <c r="BI3" s="62"/>
       <c r="BJ3" s="63"/>
     </row>
-    <row r="4" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true">
       <c r="A4" s="64"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
@@ -3374,8 +3383,8 @@
       <c r="BI4" s="50"/>
       <c r="BJ4" s="51"/>
     </row>
-    <row r="5" spans="1:62" s="2" customFormat="1" ht="4.5" customHeight="1"/>
-    <row r="6" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="5" spans="1:62" s="2" customFormat="true" ht="4.5" customHeight="true"/>
+    <row r="6" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A6" s="96" t="s">
         <v>17</v>
       </c>
@@ -3447,7 +3456,7 @@
       <c r="BI6" s="100"/>
       <c r="BJ6" s="101"/>
     </row>
-    <row r="7" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="7" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A7" s="73">
         <v>1</v>
       </c>
@@ -3519,7 +3528,7 @@
       <c r="BI7" s="23"/>
       <c r="BJ7" s="24"/>
     </row>
-    <row r="8" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A8" s="73">
         <v>2</v>
       </c>
@@ -3591,7 +3600,7 @@
       <c r="BI8" s="34"/>
       <c r="BJ8" s="35"/>
     </row>
-    <row r="9" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="9" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A9" s="73">
         <v>3</v>
       </c>
@@ -3661,7 +3670,7 @@
       <c r="BI9" s="34"/>
       <c r="BJ9" s="35"/>
     </row>
-    <row r="10" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="10" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A10" s="73">
         <v>4</v>
       </c>
@@ -3733,7 +3742,7 @@
       <c r="BI10" s="34"/>
       <c r="BJ10" s="35"/>
     </row>
-    <row r="11" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="11" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A11" s="73">
         <v>5</v>
       </c>
@@ -3803,7 +3812,7 @@
       <c r="BI11" s="34"/>
       <c r="BJ11" s="35"/>
     </row>
-    <row r="12" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="12" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A12" s="73">
         <v>6</v>
       </c>
@@ -3873,7 +3882,7 @@
       <c r="BI12" s="34"/>
       <c r="BJ12" s="35"/>
     </row>
-    <row r="13" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="13" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A13" s="73">
         <v>7</v>
       </c>
@@ -3945,7 +3954,7 @@
       <c r="BI13" s="34"/>
       <c r="BJ13" s="35"/>
     </row>
-    <row r="14" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="14" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A14" s="73">
         <v>8</v>
       </c>
@@ -4017,7 +4026,7 @@
       <c r="BI14" s="34"/>
       <c r="BJ14" s="35"/>
     </row>
-    <row r="15" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="15" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A15" s="73">
         <v>9</v>
       </c>
@@ -4087,7 +4096,7 @@
       <c r="BI15" s="34"/>
       <c r="BJ15" s="35"/>
     </row>
-    <row r="16" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="16" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A16" s="73">
         <v>10</v>
       </c>
@@ -4157,7 +4166,7 @@
       <c r="BI16" s="34"/>
       <c r="BJ16" s="35"/>
     </row>
-    <row r="17" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="17" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A17" s="73">
         <v>11</v>
       </c>
@@ -4227,7 +4236,7 @@
       <c r="BI17" s="34"/>
       <c r="BJ17" s="35"/>
     </row>
-    <row r="18" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="18" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A18" s="73">
         <v>12</v>
       </c>
@@ -4299,7 +4308,7 @@
       <c r="BI18" s="34"/>
       <c r="BJ18" s="35"/>
     </row>
-    <row r="19" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="19" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A19" s="73">
         <v>13</v>
       </c>
@@ -4369,7 +4378,7 @@
       <c r="BI19" s="34"/>
       <c r="BJ19" s="35"/>
     </row>
-    <row r="20" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="20" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A20" s="73">
         <v>14</v>
       </c>
@@ -4439,7 +4448,7 @@
       <c r="BI20" s="34"/>
       <c r="BJ20" s="35"/>
     </row>
-    <row r="21" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="21" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A21" s="73">
         <v>15</v>
       </c>
@@ -4509,7 +4518,7 @@
       <c r="BI21" s="34"/>
       <c r="BJ21" s="35"/>
     </row>
-    <row r="22" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="22" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A22" s="73">
         <v>16</v>
       </c>
@@ -4579,7 +4588,7 @@
       <c r="BI22" s="34"/>
       <c r="BJ22" s="35"/>
     </row>
-    <row r="23" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="23" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A23" s="73">
         <v>17</v>
       </c>
@@ -4651,7 +4660,7 @@
       <c r="BI23" s="34"/>
       <c r="BJ23" s="35"/>
     </row>
-    <row r="24" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="24" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A24" s="73">
         <v>18</v>
       </c>
@@ -4721,7 +4730,7 @@
       <c r="BI24" s="34"/>
       <c r="BJ24" s="35"/>
     </row>
-    <row r="25" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="25" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A25" s="73">
         <v>19</v>
       </c>
@@ -4791,7 +4800,7 @@
       <c r="BI25" s="34"/>
       <c r="BJ25" s="35"/>
     </row>
-    <row r="26" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="26" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A26" s="73">
         <v>20</v>
       </c>
@@ -4861,7 +4870,7 @@
       <c r="BI26" s="34"/>
       <c r="BJ26" s="35"/>
     </row>
-    <row r="27" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="27" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A27" s="73">
         <v>21</v>
       </c>
@@ -4931,7 +4940,7 @@
       <c r="BI27" s="34"/>
       <c r="BJ27" s="35"/>
     </row>
-    <row r="28" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="28" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A28" s="73">
         <v>22</v>
       </c>
@@ -5001,7 +5010,7 @@
       <c r="BI28" s="34"/>
       <c r="BJ28" s="35"/>
     </row>
-    <row r="29" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="29" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A29" s="73">
         <v>23</v>
       </c>
@@ -5073,7 +5082,7 @@
       <c r="BI29" s="34"/>
       <c r="BJ29" s="35"/>
     </row>
-    <row r="30" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="30" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A30" s="73">
         <v>24</v>
       </c>
@@ -5143,7 +5152,7 @@
       <c r="BI30" s="34"/>
       <c r="BJ30" s="35"/>
     </row>
-    <row r="31" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="31" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A31" s="73">
         <v>25</v>
       </c>
@@ -5215,7 +5224,7 @@
       <c r="BI31" s="34"/>
       <c r="BJ31" s="35"/>
     </row>
-    <row r="32" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="32" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A32" s="73">
         <v>26</v>
       </c>
@@ -5285,7 +5294,7 @@
       <c r="BI32" s="34"/>
       <c r="BJ32" s="35"/>
     </row>
-    <row r="33" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="33" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A33" s="73">
         <v>27</v>
       </c>
@@ -5355,7 +5364,7 @@
       <c r="BI33" s="34"/>
       <c r="BJ33" s="35"/>
     </row>
-    <row r="34" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="34" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A34" s="73">
         <v>28</v>
       </c>
@@ -5427,7 +5436,7 @@
       <c r="BI34" s="34"/>
       <c r="BJ34" s="35"/>
     </row>
-    <row r="35" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="35" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A35" s="73">
         <v>29</v>
       </c>
@@ -5495,7 +5504,7 @@
       <c r="BI35" s="34"/>
       <c r="BJ35" s="35"/>
     </row>
-    <row r="36" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="36" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A36" s="73">
         <v>30</v>
       </c>
@@ -5529,7 +5538,7 @@
       <c r="AA36" s="77"/>
       <c r="AB36" s="77"/>
       <c r="AC36" s="83"/>
-      <c r="AD36" s="22" t="s">
+      <c r="AD36" s="112" t="s">
         <v>83</v>
       </c>
       <c r="AE36" s="34"/>
@@ -5565,7 +5574,7 @@
       <c r="BI36" s="34"/>
       <c r="BJ36" s="35"/>
     </row>
-    <row r="37" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="37" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A37" s="73">
         <v>31</v>
       </c>
@@ -5599,7 +5608,7 @@
       <c r="AA37" s="77"/>
       <c r="AB37" s="77"/>
       <c r="AC37" s="83"/>
-      <c r="AD37" s="22" t="s">
+      <c r="AD37" s="112" t="s">
         <v>85</v>
       </c>
       <c r="AE37" s="34"/>
@@ -5635,7 +5644,7 @@
       <c r="BI37" s="34"/>
       <c r="BJ37" s="35"/>
     </row>
-    <row r="38" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="38" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A38" s="73">
         <v>32</v>
       </c>
@@ -5705,7 +5714,7 @@
       <c r="BI38" s="34"/>
       <c r="BJ38" s="35"/>
     </row>
-    <row r="39" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="39" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A39" s="73">
         <v>33</v>
       </c>
@@ -5775,7 +5784,7 @@
       <c r="BI39" s="34"/>
       <c r="BJ39" s="35"/>
     </row>
-    <row r="40" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="40" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A40" s="73">
         <v>34</v>
       </c>
@@ -5845,7 +5854,7 @@
       <c r="BI40" s="34"/>
       <c r="BJ40" s="35"/>
     </row>
-    <row r="41" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="41" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A41" s="78">
         <v>35</v>
       </c>
@@ -5915,7 +5924,7 @@
       <c r="BI41" s="47"/>
       <c r="BJ41" s="48"/>
     </row>
-    <row r="42" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="42" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A42" s="109">
         <v>36</v>
       </c>
@@ -5985,7 +5994,7 @@
       <c r="BI42" s="45"/>
       <c r="BJ42" s="46"/>
     </row>
-    <row r="43" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="43" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A43" s="73">
         <v>37</v>
       </c>
@@ -6055,7 +6064,7 @@
       <c r="BI43" s="34"/>
       <c r="BJ43" s="35"/>
     </row>
-    <row r="44" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="44" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A44" s="73">
         <v>38</v>
       </c>
@@ -6125,7 +6134,7 @@
       <c r="BI44" s="34"/>
       <c r="BJ44" s="35"/>
     </row>
-    <row r="45" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="45" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A45" s="73">
         <v>39</v>
       </c>
@@ -6197,7 +6206,7 @@
       <c r="BI45" s="34"/>
       <c r="BJ45" s="35"/>
     </row>
-    <row r="46" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="46" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A46" s="73">
         <v>40</v>
       </c>
@@ -6267,7 +6276,7 @@
       <c r="BI46" s="34"/>
       <c r="BJ46" s="35"/>
     </row>
-    <row r="47" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="47" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A47" s="73">
         <v>41</v>
       </c>
@@ -6337,7 +6346,7 @@
       <c r="BI47" s="34"/>
       <c r="BJ47" s="35"/>
     </row>
-    <row r="48" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="48" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A48" s="73">
         <v>42</v>
       </c>
@@ -6405,7 +6414,7 @@
       <c r="BI48" s="34"/>
       <c r="BJ48" s="35"/>
     </row>
-    <row r="49" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="49" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A49" s="73">
         <v>43</v>
       </c>
@@ -6473,7 +6482,7 @@
       <c r="BI49" s="34"/>
       <c r="BJ49" s="35"/>
     </row>
-    <row r="50" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="50" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A50" s="73">
         <v>44</v>
       </c>
@@ -6541,7 +6550,7 @@
       <c r="BI50" s="34"/>
       <c r="BJ50" s="35"/>
     </row>
-    <row r="51" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="51" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A51" s="73">
         <v>45</v>
       </c>
@@ -6609,7 +6618,7 @@
       <c r="BI51" s="34"/>
       <c r="BJ51" s="35"/>
     </row>
-    <row r="52" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="52" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A52" s="73">
         <v>46</v>
       </c>
@@ -6681,7 +6690,7 @@
       <c r="BI52" s="34"/>
       <c r="BJ52" s="35"/>
     </row>
-    <row r="53" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="53" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A53" s="73">
         <v>47</v>
       </c>
@@ -6751,7 +6760,7 @@
       <c r="BI53" s="34"/>
       <c r="BJ53" s="35"/>
     </row>
-    <row r="54" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="54" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A54" s="73">
         <v>48</v>
       </c>
@@ -6821,7 +6830,7 @@
       <c r="BI54" s="34"/>
       <c r="BJ54" s="35"/>
     </row>
-    <row r="55" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="55" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A55" s="73">
         <v>49</v>
       </c>
@@ -6891,7 +6900,7 @@
       <c r="BI55" s="34"/>
       <c r="BJ55" s="35"/>
     </row>
-    <row r="56" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="56" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A56" s="73">
         <v>50</v>
       </c>
@@ -6963,7 +6972,7 @@
       <c r="BI56" s="23"/>
       <c r="BJ56" s="24"/>
     </row>
-    <row r="57" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="57" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A57" s="73">
         <v>51</v>
       </c>
@@ -7033,7 +7042,7 @@
       <c r="BI57" s="23"/>
       <c r="BJ57" s="24"/>
     </row>
-    <row r="58" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="58" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A58" s="73">
         <v>52</v>
       </c>
@@ -7103,7 +7112,7 @@
       <c r="BI58" s="26"/>
       <c r="BJ58" s="27"/>
     </row>
-    <row r="59" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="59" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A59" s="73">
         <v>53</v>
       </c>
@@ -7173,7 +7182,7 @@
       <c r="BI59" s="26"/>
       <c r="BJ59" s="27"/>
     </row>
-    <row r="60" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="60" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A60" s="73">
         <v>54</v>
       </c>
@@ -7243,7 +7252,7 @@
       <c r="BI60" s="26"/>
       <c r="BJ60" s="27"/>
     </row>
-    <row r="61" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="61" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A61" s="73">
         <v>55</v>
       </c>
@@ -7313,7 +7322,7 @@
       <c r="BI61" s="26"/>
       <c r="BJ61" s="27"/>
     </row>
-    <row r="62" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="62" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A62" s="73">
         <v>56</v>
       </c>
@@ -7383,7 +7392,7 @@
       <c r="BI62" s="26"/>
       <c r="BJ62" s="27"/>
     </row>
-    <row r="63" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="63" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A63" s="73">
         <v>57</v>
       </c>
@@ -7453,7 +7462,7 @@
       <c r="BI63" s="23"/>
       <c r="BJ63" s="24"/>
     </row>
-    <row r="64" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="64" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A64" s="73">
         <v>58</v>
       </c>
@@ -7523,7 +7532,7 @@
       <c r="BI64" s="29"/>
       <c r="BJ64" s="30"/>
     </row>
-    <row r="65" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="65" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A65" s="73">
         <v>59</v>
       </c>
@@ -7593,7 +7602,7 @@
       <c r="BI65" s="29"/>
       <c r="BJ65" s="30"/>
     </row>
-    <row r="66" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="66" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A66" s="73">
         <v>60</v>
       </c>
@@ -7663,7 +7672,7 @@
       <c r="BI66" s="29"/>
       <c r="BJ66" s="30"/>
     </row>
-    <row r="67" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="67" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A67" s="73">
         <v>61</v>
       </c>
@@ -7733,7 +7742,7 @@
       <c r="BI67" s="29"/>
       <c r="BJ67" s="30"/>
     </row>
-    <row r="68" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="68" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A68" s="73">
         <v>62</v>
       </c>
@@ -7803,7 +7812,7 @@
       <c r="BI68" s="29"/>
       <c r="BJ68" s="30"/>
     </row>
-    <row r="69" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="69" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A69" s="73">
         <v>63</v>
       </c>
@@ -7873,7 +7882,7 @@
       <c r="BI69" s="29"/>
       <c r="BJ69" s="30"/>
     </row>
-    <row r="70" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="70" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A70" s="73">
         <v>64</v>
       </c>
@@ -7943,7 +7952,7 @@
       <c r="BI70" s="29"/>
       <c r="BJ70" s="30"/>
     </row>
-    <row r="71" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="71" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A71" s="73">
         <v>65</v>
       </c>
@@ -8013,7 +8022,7 @@
       <c r="BI71" s="29"/>
       <c r="BJ71" s="30"/>
     </row>
-    <row r="72" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="72" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A72" s="73">
         <v>67</v>
       </c>
@@ -8083,7 +8092,7 @@
       <c r="BI72" s="23"/>
       <c r="BJ72" s="24"/>
     </row>
-    <row r="73" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="73" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A73" s="73">
         <v>68</v>
       </c>
@@ -8153,7 +8162,7 @@
       <c r="BI73" s="23"/>
       <c r="BJ73" s="24"/>
     </row>
-    <row r="74" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="74" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A74" s="73">
         <v>69</v>
       </c>
@@ -8223,7 +8232,7 @@
       <c r="BI74" s="23"/>
       <c r="BJ74" s="24"/>
     </row>
-    <row r="75" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="75" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A75" s="73">
         <v>70</v>
       </c>
@@ -8293,7 +8302,7 @@
       <c r="BI75" s="23"/>
       <c r="BJ75" s="24"/>
     </row>
-    <row r="76" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="76" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A76" s="73">
         <v>71</v>
       </c>
@@ -8363,7 +8372,7 @@
       <c r="BI76" s="23"/>
       <c r="BJ76" s="24"/>
     </row>
-    <row r="77" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="77" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A77" s="73">
         <v>72</v>
       </c>
@@ -8433,7 +8442,7 @@
       <c r="BI77" s="23"/>
       <c r="BJ77" s="24"/>
     </row>
-    <row r="78" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="78" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A78" s="73">
         <v>73</v>
       </c>
@@ -8503,7 +8512,7 @@
       <c r="BI78" s="23"/>
       <c r="BJ78" s="24"/>
     </row>
-    <row r="79" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="79" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A79" s="73">
         <v>74</v>
       </c>
@@ -8573,7 +8582,7 @@
       <c r="BI79" s="23"/>
       <c r="BJ79" s="24"/>
     </row>
-    <row r="80" spans="1:62" s="5" customFormat="1" ht="30.75" customHeight="1">
+    <row r="80" spans="1:62" s="5" customFormat="true" ht="30.75" customHeight="true">
       <c r="A80" s="78">
         <v>75</v>
       </c>
@@ -8643,14 +8652,14 @@
       <c r="BI80" s="39"/>
       <c r="BJ80" s="40"/>
     </row>
-    <row r="81" s="4" customFormat="1" ht="6" customHeight="1"/>
-    <row r="82" s="4" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="83" ht="18" customHeight="1"/>
-    <row r="84" ht="18" customHeight="1"/>
-    <row r="85" ht="18" customHeight="1"/>
-    <row r="86" ht="18" customHeight="1"/>
-    <row r="87" ht="18" customHeight="1"/>
-    <row r="88" ht="18" customHeight="1"/>
+    <row r="81" s="4" customFormat="true" ht="6" customHeight="true"/>
+    <row r="82" s="4" customFormat="true" ht="13.5" customHeight="true"/>
+    <row r="83" ht="18" customHeight="true"/>
+    <row r="84" ht="18" customHeight="true"/>
+    <row r="85" ht="18" customHeight="true"/>
+    <row r="86" ht="18" customHeight="true"/>
+    <row r="87" ht="18" customHeight="true"/>
+    <row r="88" ht="18" customHeight="true"/>
   </sheetData>
   <mergeCells count="168">
     <mergeCell ref="A40:E40"/>
@@ -8823,14 +8832,14 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.6692913385826772" right="0.27559055118110237" top="0.6692913385826772" bottom="0.35433070866141736" header="0.86614173228346458" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.6692913385826772" right="0.2755905511811024" top="0.6692913385826772" bottom="0.35433070866141736" header="0.8661417322834646" footer="0.1968503937007874"/>
+  <pageSetup fitToHeight="0" r:id="rId1" orientation="portrait" paperSize="9" scale="70" useFirstPageNumber="true"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;R&amp;P   </oddHeader>
+    <oddHeader>&amp;R&amp;P   </oddHeader>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="40" max="61" man="1"/>
-    <brk id="74" max="61" man="1"/>
+    <brk id="40" max="61" man="true"/>
+    <brk id="74" max="61" man="true"/>
   </rowBreaks>
 </worksheet>
 </file>
